--- a/biology/Zoologie/Dioptrornis/Dioptrornis.xlsx
+++ b/biology/Zoologie/Dioptrornis/Dioptrornis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dioptrornis Fischer &amp; Reichenow, 1884 était un genre d’oiseaux de la famille des Muscicapidae.
 S'appuyant sur diverses études phylogéniques, le Congrès ornithologique international (classification version 4.1, 2014) transfère les trois espèces de ce genre vers le genre Melaenornis.
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jusqu'à la classification version 3.5 (2015) du Congrès ornithologique international (ordre phylogénique) :
 Dioptrornis brunneus Cabanis, 1886 – Gobemouche d'Angola
